--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E171385-06E0-404A-A8DF-DCA5980ED0A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Fondo" sheetId="6" r:id="rId5"/>
     <sheet name="Criterios" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -295,9 +296,6 @@
     <t>Limite venta: 10%</t>
   </si>
   <si>
-    <t>Hasta Agosto</t>
-  </si>
-  <si>
     <t>Dividendos ITX.MC</t>
   </si>
   <si>
@@ -341,12 +339,15 @@
   </si>
   <si>
     <t>Deuda Baja: Todavia nose los niveles apropiados</t>
+  </si>
+  <si>
+    <t>Hasta Noviembre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00;[Red]\-&quot;€&quot;#,##0.00"/>
@@ -1210,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1510,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,11 +1798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>36.049999999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1937,7 +1938,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.38760585065434938</v>
+        <v>0.31062355658198593</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2098,11 +2099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2269,7 @@
       </c>
       <c r="S4" s="42"/>
       <c r="T4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2778,7 +2779,7 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3033,11 +3034,11 @@
       </c>
       <c r="F26" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>36.049999999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="G26" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.38760585065434938</v>
+        <v>0.31062355658198593</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="2"/>
@@ -3057,35 +3058,35 @@
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>7065.7999999999993</v>
+        <v>6673.7999999999993</v>
       </c>
       <c r="M26" s="9">
         <f>IF((L26*(0.0075+0.0008))&lt;-30,30,-(L26*(0.0075+0.0008)))</f>
-        <v>-58.646139999999995</v>
+        <v>-55.392539999999997</v>
       </c>
       <c r="N26" s="9">
         <f>-(L26*0.0027)</f>
-        <v>-19.077659999999998</v>
+        <v>-18.019259999999999</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="7"/>
-        <v>6988.0761999999995</v>
+        <v>6600.3881999999994</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="8"/>
-        <v>100.910404</v>
+        <v>97.656803999999994</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="9"/>
-        <v>32.826276</v>
+        <v>31.767876000000001</v>
       </c>
       <c r="R26" s="9">
         <f>O26-K26</f>
-        <v>1839.9833199999994</v>
+        <v>1452.2953199999993</v>
       </c>
       <c r="S26" s="10">
         <f>R26/K26</f>
-        <v>0.35741066893882445</v>
+        <v>0.2821035583180852</v>
       </c>
       <c r="T26" t="s">
         <v>60</v>
@@ -3152,10 +3153,10 @@
         <v>70</v>
       </c>
       <c r="U32">
-        <v>36.049999999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="V32" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
@@ -3187,7 +3188,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.24310344827586206</v>
+        <v>0.17413793103448261</v>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
@@ -3269,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,21 +3287,21 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="56">
         <f>718.89+5092.08</f>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="56">
         <f>1070</f>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="56">
         <v>250</v>
@@ -3371,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,32 +3386,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E171385-06E0-404A-A8DF-DCA5980ED0A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8892126A-3387-4D47-B41E-82151D3537F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>34.049999999999997</v>
+        <v>34.54</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.31062355658198593</v>
+        <v>0.32948421862971511</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,11 +3034,11 @@
       </c>
       <c r="F26" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>34.049999999999997</v>
+        <v>34.54</v>
       </c>
       <c r="G26" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.31062355658198593</v>
+        <v>0.32948421862971511</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="2"/>
@@ -3058,35 +3058,35 @@
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>6673.7999999999993</v>
+        <v>6769.84</v>
       </c>
       <c r="M26" s="9">
         <f>IF((L26*(0.0075+0.0008))&lt;-30,30,-(L26*(0.0075+0.0008)))</f>
-        <v>-55.392539999999997</v>
+        <v>-56.189672000000002</v>
       </c>
       <c r="N26" s="9">
         <f>-(L26*0.0027)</f>
-        <v>-18.019259999999999</v>
+        <v>-18.278568</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="7"/>
-        <v>6600.3881999999994</v>
+        <v>6695.37176</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="8"/>
-        <v>97.656803999999994</v>
+        <v>98.453935999999999</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="9"/>
-        <v>31.767876000000001</v>
+        <v>32.027183999999998</v>
       </c>
       <c r="R26" s="9">
         <f>O26-K26</f>
-        <v>1452.2953199999993</v>
+        <v>1547.2788799999998</v>
       </c>
       <c r="S26" s="10">
         <f>R26/K26</f>
-        <v>0.2821035583180852</v>
+        <v>0.30055380042016644</v>
       </c>
       <c r="T26" t="s">
         <v>60</v>
@@ -3130,7 +3130,7 @@
         <v>72</v>
       </c>
       <c r="U31">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
         <v>70</v>
       </c>
       <c r="U32">
-        <v>34.049999999999997</v>
+        <v>34.54</v>
       </c>
       <c r="V32" t="s">
         <v>90</v>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.17413793103448261</v>
+        <v>0.23357142857142854</v>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8892126A-3387-4D47-B41E-82151D3537F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA6484DB-A3B8-44C5-B3E4-0A20F98A0362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1802,7 +1802,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2103,7 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA6484DB-A3B8-44C5-B3E4-0A20F98A0362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADDAFB3D-09CE-4F60-B78D-793E91FF3538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,11 +3141,11 @@
         <v>74.89</v>
       </c>
       <c r="F32">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G32" s="10">
         <f>1-(F32/E32)</f>
-        <v>0.26558953131259178</v>
+        <v>0.30564828415008682</v>
       </c>
       <c r="P32" s="5"/>
       <c r="S32" s="10"/>
@@ -3167,11 +3167,11 @@
         <v>182.08</v>
       </c>
       <c r="F33">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G33" s="10">
         <f>1-(F33/E33)</f>
-        <v>0.41234622144112487</v>
+        <v>0.30799648506151145</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -3199,11 +3199,11 @@
         <v>93.54</v>
       </c>
       <c r="F34">
-        <v>73.5</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10">
         <f>1-(F34/E34)</f>
-        <v>0.21423989737010907</v>
+        <v>0.30511011332050464</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADDAFB3D-09CE-4F60-B78D-793E91FF3538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{125AF3D8-6CCA-47A8-B391-9AC395E957DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>% =</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Hasta Noviembre</t>
+  </si>
+  <si>
+    <t>Índices ESG (medioambiente, responsabilidad social y gobierno corporativo) alto</t>
+  </si>
+  <si>
+    <t>BB-33</t>
   </si>
 </sst>
 </file>
@@ -2102,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3136,7 @@
         <v>72</v>
       </c>
       <c r="U31">
-        <v>28</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3159,7 +3165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>65</v>
       </c>
@@ -3188,10 +3194,13 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.23357142857142854</v>
-      </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="V33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>67</v>
       </c>
@@ -3210,46 +3219,46 @@
       <c r="J34" s="9"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R35" s="43"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="R36" s="44"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R37" s="45"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R38" s="50"/>
       <c r="S38" s="48"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="R39" s="45"/>
       <c r="S39" s="49"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="R40" s="45"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="R41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R42" s="43"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R43" s="44"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R44" s="45"/>
     </row>
     <row r="67" spans="16:16" x14ac:dyDescent="0.25">
@@ -3274,7 +3283,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,15 +3382,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3414,7 +3423,13 @@
         <v>89</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{125AF3D8-6CCA-47A8-B391-9AC395E957DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D8ECCAA3-7E95-462A-A36F-5AD8631A0F5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>% =</t>
   </si>
@@ -341,13 +341,16 @@
     <t>Deuda Baja: Todavia nose los niveles apropiados</t>
   </si>
   <si>
-    <t>Hasta Noviembre</t>
-  </si>
-  <si>
     <t>Índices ESG (medioambiente, responsabilidad social y gobierno corporativo) alto</t>
   </si>
   <si>
     <t>BB-33</t>
+  </si>
+  <si>
+    <t>Hasta 1 Noviembre</t>
+  </si>
+  <si>
+    <t>&lt;-- Beneficios</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3139,7 @@
         <v>72</v>
       </c>
       <c r="U31">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3153,7 +3156,15 @@
         <f>1-(F32/E32)</f>
         <v>0.30564828415008682</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="N32">
+        <v>6769.84</v>
+      </c>
+      <c r="O32">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="P32" s="5">
+        <v>6695.38</v>
+      </c>
       <c r="S32" s="10"/>
       <c r="T32" t="s">
         <v>70</v>
@@ -3162,7 +3173,7 @@
         <v>34.54</v>
       </c>
       <c r="V32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.25">
@@ -3187,17 +3198,20 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5">
+        <f>P32-K26</f>
+        <v>1547.28712</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="T33" t="s">
         <v>71</v>
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.25600000000000001</v>
+        <v>0.21192982456140341</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.25">
@@ -3218,8 +3232,16 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="5"/>
+      <c r="P34" s="56">
+        <f>P33*0.1</f>
+        <v>154.728712</v>
+      </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="P35" s="56">
+        <f>P33-P34</f>
+        <v>1392.5584079999999</v>
+      </c>
       <c r="R35" s="43"/>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.25">
@@ -3280,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3316,7 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>78</v>
       </c>
@@ -3308,7 +3330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3342,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -3358,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3372,6 +3394,9 @@
       </c>
       <c r="D6" s="56">
         <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3450,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D8ECCAA3-7E95-462A-A36F-5AD8631A0F5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FBC2556-E40A-4888-B94D-5070C7B64335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3305,7 +3305,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.81489194317182656</v>
+        <v>0.81147805395079164</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3352,12 +3352,12 @@
         <v>81</v>
       </c>
       <c r="B4" s="56">
-        <f>1070</f>
-        <v>1070</v>
+        <f>1100</f>
+        <v>1100</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.15004971273192846</v>
+        <v>0.15361047455861426</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.5058344096244969E-2</v>
+        <v>3.4911471490594148E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7130.97</v>
+        <v>7160.97</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FBC2556-E40A-4888-B94D-5070C7B64335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB8CD84E-44E5-4C1A-A5D5-99A5A5BDB77E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>% =</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>Limite venta:</t>
-  </si>
-  <si>
-    <t>OPERACION 1</t>
-  </si>
-  <si>
-    <t>OPERACION 2</t>
   </si>
   <si>
     <t>Intereses Cuenta</t>
@@ -326,24 +320,6 @@
     <t>Reparto de Beneficios Netos</t>
   </si>
   <si>
-    <t>Los analistas les den un potencial alto, entre un 30% - 50% de potencial</t>
-  </si>
-  <si>
-    <t>Haber bajado en un año entre un 30% - 50%</t>
-  </si>
-  <si>
-    <t>Volumen medio, alto &gt; 1 M / dia</t>
-  </si>
-  <si>
-    <t>Bajada especulativa: Muchas opciones de venta (&gt; 1%)</t>
-  </si>
-  <si>
-    <t>Deuda Baja: Todavia nose los niveles apropiados</t>
-  </si>
-  <si>
-    <t>Índices ESG (medioambiente, responsabilidad social y gobierno corporativo) alto</t>
-  </si>
-  <si>
     <t>BB-33</t>
   </si>
   <si>
@@ -351,6 +327,90 @@
   </si>
   <si>
     <t>&lt;-- Beneficios</t>
+  </si>
+  <si>
+    <t>1. Haber bajado en un año entre un 30% - 50%</t>
+  </si>
+  <si>
+    <t>2. Los analistas les den un potencial alto, entre un 30% - 50% de potencial</t>
+  </si>
+  <si>
+    <t>3. Volumen medio, alto &gt; 1 M / dia</t>
+  </si>
+  <si>
+    <t>4. Bajada especulativa: Muchas opciones de venta (&gt; 1%)</t>
+  </si>
+  <si>
+    <t>5. Deuda Baja: Todavia nose los niveles apropiados</t>
+  </si>
+  <si>
+    <t>6. Índices ESG (medioambiente, responsabilidad social y gobierno corporativo) alto</t>
+  </si>
+  <si>
+    <t>Analistas (2)</t>
+  </si>
+  <si>
+    <t>GoldMan Sach</t>
+  </si>
+  <si>
+    <t>JPMorgan</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>Renta4</t>
+  </si>
+  <si>
+    <t>Credit Suise</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Fiabilidad</t>
+  </si>
+  <si>
+    <t>Influencia</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Muy alta</t>
+  </si>
+  <si>
+    <t>Corto</t>
+  </si>
+  <si>
+    <t>Muy Alta</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Muy Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>BHP Billiton plc (BIL.DE)</t>
+  </si>
+  <si>
+    <t>OPERACION 2 (DE)</t>
+  </si>
+  <si>
+    <t>OPERACION 1 (BE,NL)</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1284,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1337,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1440,7 +1500,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <f>((46.9+26.95)/B16)+B17+B18</f>
@@ -1542,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="5">
-        <v>600.6</v>
+        <v>4000</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>1</v>
@@ -1576,8 +1636,8 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
+      <c r="B3" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1598,8 +1658,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <f>2.2*3</f>
-        <v>6.6000000000000005</v>
+        <v>49.94</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -1622,14 +1681,14 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="25">
         <f>IF(B$7 &gt;= 0.51,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>9</v>
@@ -1645,7 +1704,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>28.52</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1661,7 +1720,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>3.3212121212121204</v>
+        <v>0.40969162995594721</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1704,7 +1763,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1713,7 +1772,7 @@
       </c>
       <c r="B12" s="5">
         <f>(B4*0.1155)+B4</f>
-        <v>7.3623000000000003</v>
+        <v>55.708069999999999</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -1811,7 +1870,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1923,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>3</v>
@@ -1995,7 +2054,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>29.22</v>
@@ -2026,7 +2085,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <f>(B4*0.022)+B4</f>
@@ -2069,7 +2128,7 @@
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>35</v>
@@ -2077,19 +2136,19 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="33"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2109,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,19 +2189,19 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H1" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
       <c r="L1" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
       <c r="P1" s="65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="65"/>
       <c r="R1" s="65"/>
@@ -2170,28 +2229,28 @@
         <v>19</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>21</v>
@@ -2200,7 +2259,7 @@
         <v>20</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>23</v>
@@ -2278,7 +2337,7 @@
       </c>
       <c r="S4" s="42"/>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2394,7 +2453,7 @@
       </c>
       <c r="S7" s="10"/>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2420,7 +2479,7 @@
       </c>
       <c r="S8" s="10"/>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2446,7 +2505,7 @@
       </c>
       <c r="S9" s="10"/>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2472,7 +2531,7 @@
       </c>
       <c r="S10" s="10"/>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2498,7 +2557,7 @@
       </c>
       <c r="S11" s="10"/>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2525,7 +2584,7 @@
       </c>
       <c r="S12" s="10"/>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2689,7 +2748,7 @@
       </c>
       <c r="S16" s="10"/>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2715,12 +2774,12 @@
       </c>
       <c r="S17" s="10"/>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="8">
         <v>43154</v>
@@ -2750,12 +2809,12 @@
       </c>
       <c r="S18" s="10"/>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8">
         <v>43222</v>
@@ -2788,7 +2847,7 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2942,13 +3001,13 @@
         <v>0.32770949929404947</v>
       </c>
       <c r="T24" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
-        <v>MT.AS</v>
+        <v>DAI.DE</v>
       </c>
       <c r="B25" s="8">
         <f>'Operacion 2'!B$2</f>
@@ -2957,70 +3016,70 @@
       <c r="C25" s="8"/>
       <c r="D25" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9">
         <f>'Operacion 2'!B$4</f>
-        <v>6.6000000000000005</v>
+        <v>49.94</v>
       </c>
       <c r="F25" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>28.52</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="G25" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>3.3212121212121204</v>
+        <v>0.40969162995594721</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" ref="H25:H26" si="2">E25*D25</f>
-        <v>600.6</v>
+        <v>3995.2</v>
       </c>
       <c r="I25" s="9">
-        <f>IF((H25*0.005)&lt;20,20,(H25*0.005))</f>
-        <v>20</v>
+        <f>IF((H25*0.0075)&lt;30,30,(H25*0.0075))</f>
+        <v>30</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" ref="J25" si="3">SUM(H25:I25)*0.0027</f>
-        <v>1.6756200000000001</v>
+        <f>H25*0.0027</f>
+        <v>10.787039999999999</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" ref="K25:K26" si="4">SUM(H25:J25)</f>
-        <v>622.27562</v>
+        <f t="shared" ref="K25:K26" si="3">SUM(H25:J25)</f>
+        <v>4035.98704</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" ref="L25:L26" si="5">D25*F25</f>
-        <v>2595.3200000000002</v>
+        <f t="shared" ref="L25:L26" si="4">D25*F25</f>
+        <v>5632</v>
       </c>
       <c r="M25" s="9">
-        <f>IF((L25*0.005)&lt;20,-20,-(L25*0.005))</f>
-        <v>-20</v>
+        <f>IF((L25*0.075)&lt;30,-30,-(L25*0.075))</f>
+        <v>-422.4</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" ref="N25" si="6">-(SUM(L25:M25)*0.0027)</f>
-        <v>-6.9533640000000005</v>
+        <f>-(L25*0.0027)</f>
+        <v>-15.2064</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" ref="O25:O26" si="7">SUM(L25:N25)</f>
-        <v>2568.3666360000002</v>
+        <f t="shared" ref="O25:O26" si="5">SUM(L25:N25)</f>
+        <v>5194.3936000000003</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25:P26" si="8">I25-M25</f>
-        <v>40</v>
+        <f t="shared" ref="P25:P26" si="6">I25-M25</f>
+        <v>452.4</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" ref="Q25:Q26" si="9">J25-N25</f>
-        <v>8.6289840000000009</v>
+        <f t="shared" ref="Q25:Q26" si="7">J25-N25</f>
+        <v>25.99344</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="1"/>
-        <v>1946.0910160000003</v>
+        <v>1158.4065600000004</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" ref="S25" si="10">R25/K25</f>
-        <v>3.1273778908452181</v>
+        <f t="shared" ref="S25" si="8">R25/K25</f>
+        <v>0.2870193953843817</v>
       </c>
       <c r="T25" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -3062,11 +3121,11 @@
         <v>13.748616</v>
       </c>
       <c r="K26" s="9">
+        <f t="shared" si="3"/>
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="L26" s="9">
         <f t="shared" si="4"/>
-        <v>5148.0928800000002</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="5"/>
         <v>6769.84</v>
       </c>
       <c r="M26" s="9">
@@ -3078,15 +3137,15 @@
         <v>-18.278568</v>
       </c>
       <c r="O26" s="9">
+        <f t="shared" si="5"/>
+        <v>6695.37176</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="6"/>
+        <v>98.453935999999999</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="7"/>
-        <v>6695.37176</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" si="8"/>
-        <v>98.453935999999999</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="9"/>
         <v>32.027183999999998</v>
       </c>
       <c r="R26" s="9">
@@ -3098,17 +3157,17 @@
         <v>0.30055380042016644</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28" s="48"/>
       <c r="H28" s="48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
@@ -3136,15 +3195,15 @@
       <c r="P31" s="5"/>
       <c r="R31" s="5"/>
       <c r="T31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U31">
-        <v>28.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>74.89</v>
@@ -3167,18 +3226,18 @@
       </c>
       <c r="S32" s="10"/>
       <c r="T32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U32">
         <v>34.54</v>
       </c>
       <c r="V32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>182.08</v>
@@ -3204,19 +3263,19 @@
       </c>
       <c r="R33" s="5"/>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.21192982456140341</v>
+        <v>0.32846153846153836</v>
       </c>
       <c r="V33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>93.54</v>
@@ -3237,57 +3296,64 @@
         <v>154.728712</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35" s="10">
+        <f>1-(F35/E35)</f>
+        <v>0.30000000000000004</v>
+      </c>
       <c r="P35" s="56">
         <f>P33-P34</f>
         <v>1392.5584079999999</v>
       </c>
       <c r="R35" s="43"/>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="R36" s="44"/>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R37" s="45"/>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R38" s="50"/>
       <c r="S38" s="48"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="R39" s="45"/>
       <c r="S39" s="49"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="R40" s="45"/>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="R41" s="5"/>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R42" s="43"/>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R43" s="44"/>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R44" s="45"/>
-    </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P67">
-        <f>100000*0.0027</f>
-        <v>270</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3304,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,21 +3384,21 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="56">
         <f>718.89+5092.08</f>
@@ -3349,7 +3415,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="56">
         <f>1100</f>
@@ -3366,7 +3432,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="56">
         <v>250</v>
@@ -3382,7 +3448,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
@@ -3396,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3407,50 +3473,178 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB8CD84E-44E5-4C1A-A5D5-99A5A5BDB77E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4033B6D3-329B-4411-BE81-F5051E6BABE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="115">
   <si>
     <t>% =</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>OPERACION 1 (BE,NL)</t>
+  </si>
+  <si>
+    <t>Dinero no bloqueado</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1587,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,6 +3466,14 @@
       </c>
       <c r="E6" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="56">
+        <v>2068.89</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4033B6D3-329B-4411-BE81-F5051E6BABE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DC9CDD5-37AE-4F4C-AA24-2C73C05FA9BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="5">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>1</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B$7 &gt;= 0.26,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>8</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B5" s="32">
         <f>TRUNC(B1/B4)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>70.400000000000006</v>
+        <v>57</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.40969162995594721</v>
+        <v>0.14136964357228687</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E18" s="36" t="str">
         <f ca="1">IF(E11&gt;2,"VENDER-Profit",IF(E11&gt;0,"  Profit Warning", IF(E17&gt;2,"VENDER-loss",IF(E17&gt;0,"Stop Loss Warning", "Nada"))))</f>
-        <v>VENDER-Profit</v>
+        <v xml:space="preserve">  Profit Warning</v>
       </c>
       <c r="F18" s="37"/>
     </row>
@@ -2173,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3019,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="14">
         <f>'Operacion 2'!B$5</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9">
         <f>'Operacion 2'!B$4</f>
@@ -3027,15 +3027,15 @@
       </c>
       <c r="F25" s="9">
         <f>'Operacion 2'!B$6</f>
-        <v>70.400000000000006</v>
+        <v>57</v>
       </c>
       <c r="G25" s="10">
         <f>'Operacion 2'!B$7</f>
-        <v>0.40969162995594721</v>
+        <v>0.14136964357228687</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" ref="H25:H26" si="2">E25*D25</f>
-        <v>3995.2</v>
+        <v>1997.6</v>
       </c>
       <c r="I25" s="9">
         <f>IF((H25*0.0075)&lt;30,30,(H25*0.0075))</f>
@@ -3043,43 +3043,43 @@
       </c>
       <c r="J25" s="9">
         <f>H25*0.0027</f>
-        <v>10.787039999999999</v>
+        <v>5.3935199999999996</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" ref="K25:K26" si="3">SUM(H25:J25)</f>
-        <v>4035.98704</v>
+        <v>2032.99352</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" ref="L25:L26" si="4">D25*F25</f>
-        <v>5632</v>
+        <v>2280</v>
       </c>
       <c r="M25" s="9">
-        <f>IF((L25*0.075)&lt;30,-30,-(L25*0.075))</f>
-        <v>-422.4</v>
+        <f>IF((L25*0.0075)&lt;30,-30,-(L25*0.0075))</f>
+        <v>-30</v>
       </c>
       <c r="N25" s="9">
         <f>-(L25*0.0027)</f>
-        <v>-15.2064</v>
+        <v>-6.1560000000000006</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" ref="O25:O26" si="5">SUM(L25:N25)</f>
-        <v>5194.3936000000003</v>
+        <v>2243.8440000000001</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" ref="P25:P26" si="6">I25-M25</f>
-        <v>452.4</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" ref="Q25:Q26" si="7">J25-N25</f>
-        <v>25.99344</v>
+        <v>11.549520000000001</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="1"/>
-        <v>1158.4065600000004</v>
+        <v>210.85048000000006</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" ref="S25" si="8">R25/K25</f>
-        <v>0.2870193953843817</v>
+        <v>0.10371429024525373</v>
       </c>
       <c r="T25" t="s">
         <v>112</v>
@@ -3132,7 +3132,7 @@
         <v>6769.84</v>
       </c>
       <c r="M26" s="9">
-        <f>IF((L26*(0.0075+0.0008))&lt;-30,30,-(L26*(0.0075+0.0008)))</f>
+        <f>IF((L26*(0.0075+0.0008))&lt;30,-30,-(L26*(0.0075+0.0008)))</f>
         <v>-56.189672000000002</v>
       </c>
       <c r="N26" s="9">
@@ -3201,7 +3201,7 @@
         <v>70</v>
       </c>
       <c r="U31">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.32846153846153836</v>
+        <v>0.30339622641509423</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>
@@ -3374,7 +3374,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.81147805395079164</v>
+        <v>0.80865492063006106</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.15361047455861426</v>
+        <v>0.15307606349595113</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3438,11 +3438,11 @@
         <v>80</v>
       </c>
       <c r="B5" s="56">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.4911471490594148E-2</v>
+        <v>3.8269015873987781E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7160.97</v>
+        <v>7185.97</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
@@ -3473,7 +3473,8 @@
         <v>114</v>
       </c>
       <c r="B12" s="56">
-        <v>2068.89</v>
+        <f>B6-5092.08</f>
+        <v>2093.8900000000003</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DC9CDD5-37AE-4F4C-AA24-2C73C05FA9BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF48675F-261A-42A6-9B0C-B4DD562017D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,9 +338,6 @@
     <t>3. Volumen medio, alto &gt; 1 M / dia</t>
   </si>
   <si>
-    <t>4. Bajada especulativa: Muchas opciones de venta (&gt; 1%)</t>
-  </si>
-  <si>
     <t>5. Deuda Baja: Todavia nose los niveles apropiados</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>Dinero no bloqueado</t>
+  </si>
+  <si>
+    <t>4. Bajada especulativa: Muchas opciones de venta PUT (&gt; 1%)</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -945,6 +945,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2173,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3007,7 @@
         <v>0.32770949929404947</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -3082,7 +3085,7 @@
         <v>0.10371429024525373</v>
       </c>
       <c r="T25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -3301,7 +3304,7 @@
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -3321,32 +3324,51 @@
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
-      <c r="R36" s="44"/>
+      <c r="R36" s="9">
+        <v>586.38</v>
+      </c>
+      <c r="S36">
+        <v>2.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R37" s="45"/>
+      <c r="R37" s="45">
+        <f>R36*S36</f>
+        <v>1.4073119999999999</v>
+      </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R38" s="50"/>
+      <c r="R38" s="50">
+        <v>14.52</v>
+      </c>
       <c r="S38" s="48"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
-      <c r="R39" s="45"/>
+      <c r="R39" s="66">
+        <f>R37+R38</f>
+        <v>15.927311999999999</v>
+      </c>
       <c r="S39" s="49"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="R40" s="45"/>
+      <c r="R40" s="45">
+        <f>(R39*0.21)</f>
+        <v>3.3447355199999995</v>
+      </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="R41" s="5">
+        <f>R40+R39</f>
+        <v>19.272047519999997</v>
+      </c>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
@@ -3356,7 +3378,10 @@
       <c r="R43" s="44"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R44" s="45"/>
+      <c r="R44" s="66">
+        <f>R41/12*9</f>
+        <v>14.454035639999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3470,7 +3495,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="56">
         <f>B6-5092.08</f>
@@ -3488,7 +3513,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,129 +3545,129 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +3675,13 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF48675F-261A-42A6-9B0C-B4DD562017D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7C5DD34-FC2D-446E-8F90-3284AB4BCC08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
   <si>
     <t>% =</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>4. Bajada especulativa: Muchas opciones de venta PUT (&gt; 1%)</t>
+  </si>
+  <si>
+    <t>menos +o-[30€/año] en custodia</t>
   </si>
 </sst>
 </file>
@@ -919,6 +922,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,9 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,15 +1313,15 @@
       <c r="B1" s="5">
         <v>5600</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1327,10 +1330,10 @@
       <c r="B2" s="4">
         <v>42234</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1399,11 +1402,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="58" t="str">
+      <c r="I5" s="59" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1610,15 +1613,15 @@
       <c r="B1" s="5">
         <v>2000</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1627,10 +1630,10 @@
       <c r="B2" s="4">
         <v>42471</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1699,11 +1702,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="58" t="str">
+      <c r="I5" s="59" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1896,15 +1899,15 @@
       <c r="B1" s="5">
         <v>5100</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="28"/>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1913,10 +1916,10 @@
       <c r="B2" s="4">
         <v>43154</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
@@ -1985,11 +1988,11 @@
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="58" t="str">
+      <c r="I5" s="59" t="str">
         <f>IF(I4=2,"Se puede COMPRAR","Nada")</f>
         <v>Se puede COMPRAR</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2176,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="R19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,23 +2197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="65" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3009,6 +3012,9 @@
       <c r="T24" t="s">
         <v>112</v>
       </c>
+      <c r="U24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
@@ -3087,6 +3093,9 @@
       <c r="T25" t="s">
         <v>111</v>
       </c>
+      <c r="U25" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="str">
@@ -3164,6 +3173,9 @@
       </c>
       <c r="T26" t="s">
         <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -3204,7 +3216,7 @@
         <v>70</v>
       </c>
       <c r="U31">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3273,7 +3285,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.30339622641509423</v>
+        <v>0.35450980392156861</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>
@@ -3324,51 +3336,32 @@
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
-      <c r="R36" s="9">
-        <v>586.38</v>
-      </c>
-      <c r="S36">
-        <v>2.3999999999999998E-3</v>
-      </c>
+      <c r="R36" s="9"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R37" s="45">
-        <f>R36*S36</f>
-        <v>1.4073119999999999</v>
-      </c>
+      <c r="R37" s="45"/>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R38" s="50">
-        <v>14.52</v>
-      </c>
+      <c r="R38" s="50"/>
       <c r="S38" s="48"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
-      <c r="R39" s="66">
-        <f>R37+R38</f>
-        <v>15.927311999999999</v>
-      </c>
+      <c r="R39" s="57"/>
       <c r="S39" s="49"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="R40" s="45">
-        <f>(R39*0.21)</f>
-        <v>3.3447355199999995</v>
-      </c>
+      <c r="R40" s="45"/>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="R41" s="5">
-        <f>R40+R39</f>
-        <v>19.272047519999997</v>
-      </c>
+      <c r="R41" s="5"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
@@ -3378,10 +3371,7 @@
       <c r="R43" s="44"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R44" s="66">
-        <f>R41/12*9</f>
-        <v>14.454035639999997</v>
-      </c>
+      <c r="R44" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7C5DD34-FC2D-446E-8F90-3284AB4BCC08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AFE6563-5CD2-484A-86A4-C53ABE618605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
   <si>
     <t>% =</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>menos +o-[30€/año] en custodia</t>
+  </si>
+  <si>
+    <t>Dinero Bloqueado</t>
   </si>
 </sst>
 </file>
@@ -2179,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,7 +3392,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,12 +3422,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>718.89+5092.08</f>
-        <v>5810.97</v>
+        <f>728.89+B11</f>
+        <v>5820.97</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.80865492063006106</v>
+        <v>0.80667879716794832</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3436,12 +3439,12 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1100</f>
-        <v>1100</v>
+        <f>1120</f>
+        <v>1120</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.15307606349595113</v>
+        <v>0.15521128829526729</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3457,7 +3460,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.8269015873987781E-2</v>
+        <v>3.8109914536784383E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3470,7 +3473,7 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7185.97</v>
+        <v>7215.97</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
@@ -3483,13 +3486,21 @@
         <v>85</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="56">
+        <v>5092.08</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="56">
-        <f>B6-5092.08</f>
-        <v>2093.8900000000003</v>
+        <f>B6-B11</f>
+        <v>2123.8900000000003</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AFE6563-5CD2-484A-86A4-C53ABE618605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F033B4E6-F0CE-42D2-9DA8-0C70507A6A39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="R16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,7 +3219,7 @@
         <v>70</v>
       </c>
       <c r="U31">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.35450980392156861</v>
+        <v>0.39555555555555544</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F033B4E6-F0CE-42D2-9DA8-0C70507A6A39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EDD29E2-B4A2-49EB-B939-264664B7DE5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,7 +3662,7 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EDD29E2-B4A2-49EB-B939-264664B7DE5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3778C8EA-E63A-40C1-A31F-DC8A2FFD0842}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
   <si>
     <t>% =</t>
   </si>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="E4" s="25">
         <f>IF(B$7 &gt;= 0.26,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>8</v>
@@ -2002,7 +2002,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>34.54</v>
+        <v>31.75</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.32948421862971511</v>
+        <v>0.22209391839876824</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E11" s="22">
         <f ca="1">SUM(E3:E10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="E18" s="36" t="str">
         <f ca="1">IF(E11&gt;2,"VENDER-Profit",IF(E11&gt;0,"  Profit Warning", IF(E17&gt;2,"VENDER-loss",IF(E17&gt;0,"Stop Loss Warning", "Nada"))))</f>
-        <v>VENDER-Profit</v>
+        <v xml:space="preserve">  Profit Warning</v>
       </c>
       <c r="F18" s="37"/>
     </row>
@@ -2180,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,12 +2863,18 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43406</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9">
+        <f>32.34+41.16</f>
+        <v>73.5</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2878,376 +2884,381 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="P20" s="9">
+        <f>2.5+2.5+0.53+0.53</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>6.14+7.86+7.82+10</f>
+        <v>31.82</v>
+      </c>
+      <c r="R20" s="9">
+        <f>F20-P20-Q20</f>
+        <v>35.619999999999997</v>
+      </c>
       <c r="S20" s="10"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H22" s="15">
-        <f t="shared" ref="H22:O22" si="0">SUM(H3:H21)</f>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H23" s="15">
+        <f>SUM(H3:H22)</f>
         <v>17571.839999999997</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" si="0"/>
+      <c r="I23" s="15">
+        <f>SUM(I3:I22)</f>
         <v>42.26</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
+      <c r="J23" s="15">
+        <f>SUM(J3:J22)</f>
         <v>13.75</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="15">
-        <f>SUM(R3:R21)</f>
-        <v>3217.5956679999995</v>
-      </c>
-      <c r="S22" s="16">
-        <f>SUM(S3:S21)</f>
+      <c r="K23" s="15">
+        <f>SUM(K3:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f>SUM(L3:L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f>SUM(M3:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f>SUM(N3:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <f>SUM(O3:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15">
+        <f>SUM(R3:R22)</f>
+        <v>3253.2156679999994</v>
+      </c>
+      <c r="S23" s="16">
+        <f>SUM(S3:S22)</f>
         <v>3.7548916419551364</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-    </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="str">
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="str">
         <f>'Operacion 1'!B$3</f>
         <v>ABI.BR</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B25" s="8">
         <f>'Operacion 1'!B$2</f>
         <v>42234</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14">
+      <c r="C25" s="8"/>
+      <c r="D25" s="14">
         <f>'Operacion 1'!B$5</f>
         <v>62</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <f>'Operacion 1'!B$4</f>
         <v>89</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <f>'Operacion 1'!B$6</f>
         <v>120</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <f>'Operacion 1'!B$7</f>
         <v>0.348314606741573</v>
       </c>
-      <c r="H24" s="9">
-        <f>(E24*D24)</f>
+      <c r="H25" s="9">
+        <f>(E25*D25)</f>
         <v>5518</v>
       </c>
-      <c r="I24" s="9">
-        <f>IF((H24*0.005)&lt;20,20,(H24*0.005))</f>
+      <c r="I25" s="9">
+        <f>IF((H25*0.005)&lt;20,20,(H25*0.005))</f>
         <v>27.59</v>
       </c>
-      <c r="J24" s="9">
-        <f>SUM(H24:I24)*0.0027</f>
+      <c r="J25" s="9">
+        <f>SUM(H25:I25)*0.0027</f>
         <v>14.973093</v>
       </c>
-      <c r="K24" s="9">
-        <f>SUM(H24:J24)</f>
+      <c r="K25" s="9">
+        <f>SUM(H25:J25)</f>
         <v>5560.5630929999998</v>
       </c>
-      <c r="L24" s="9">
-        <f>D24*F24</f>
+      <c r="L25" s="9">
+        <f>D25*F25</f>
         <v>7440</v>
       </c>
-      <c r="M24" s="9">
-        <f>IF((L24*0.005)&lt;20,-20,-(L24*0.005))</f>
+      <c r="M25" s="9">
+        <f>IF((L25*0.005)&lt;20,-20,-(L25*0.005))</f>
         <v>-37.200000000000003</v>
       </c>
-      <c r="N24" s="9">
-        <f>-(SUM(L24:M24)*0.0027)</f>
+      <c r="N25" s="9">
+        <f>-(SUM(L25:M25)*0.0027)</f>
         <v>-19.987560000000002</v>
       </c>
-      <c r="O24" s="9">
-        <f>SUM(L24:N24)</f>
+      <c r="O25" s="9">
+        <f>SUM(L25:N25)</f>
         <v>7382.8124400000006</v>
       </c>
-      <c r="P24" s="9">
-        <f>I24-M24</f>
+      <c r="P25" s="9">
+        <f>I25-M25</f>
         <v>64.790000000000006</v>
       </c>
-      <c r="Q24" s="9">
-        <f>J24-N24</f>
+      <c r="Q25" s="9">
+        <f>J25-N25</f>
         <v>34.960653000000001</v>
       </c>
-      <c r="R24" s="9">
-        <f t="shared" ref="R24:R25" si="1">O24-K24</f>
+      <c r="R25" s="9">
+        <f t="shared" ref="R25:R26" si="0">O25-K25</f>
         <v>1822.2493470000009</v>
       </c>
-      <c r="S24" s="10">
-        <f>R24/K24</f>
+      <c r="S25" s="10">
+        <f>R25/K25</f>
         <v>0.32770949929404947</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T25" t="s">
         <v>112</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="str">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="str">
         <f>'Operacion 2'!B$3</f>
         <v>DAI.DE</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B26" s="8">
         <f>'Operacion 2'!B$2</f>
         <v>42471</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14">
+      <c r="C26" s="8"/>
+      <c r="D26" s="14">
         <f>'Operacion 2'!B$5</f>
         <v>40</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <f>'Operacion 2'!B$4</f>
         <v>49.94</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <f>'Operacion 2'!B$6</f>
         <v>57</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <f>'Operacion 2'!B$7</f>
         <v>0.14136964357228687</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" ref="H25:H26" si="2">E25*D25</f>
+      <c r="H26" s="9">
+        <f t="shared" ref="H26:H27" si="1">E26*D26</f>
         <v>1997.6</v>
       </c>
-      <c r="I25" s="9">
-        <f>IF((H25*0.0075)&lt;30,30,(H25*0.0075))</f>
+      <c r="I26" s="9">
+        <f>IF((H26*0.0075)&lt;30,30,(H26*0.0075))</f>
         <v>30</v>
       </c>
-      <c r="J25" s="9">
-        <f>H25*0.0027</f>
+      <c r="J26" s="9">
+        <f>H26*0.0027</f>
         <v>5.3935199999999996</v>
       </c>
-      <c r="K25" s="9">
-        <f t="shared" ref="K25:K26" si="3">SUM(H25:J25)</f>
+      <c r="K26" s="9">
+        <f t="shared" ref="K26:K27" si="2">SUM(H26:J26)</f>
         <v>2032.99352</v>
       </c>
-      <c r="L25" s="9">
-        <f t="shared" ref="L25:L26" si="4">D25*F25</f>
+      <c r="L26" s="9">
+        <f t="shared" ref="L26:L27" si="3">D26*F26</f>
         <v>2280</v>
       </c>
-      <c r="M25" s="9">
-        <f>IF((L25*0.0075)&lt;30,-30,-(L25*0.0075))</f>
+      <c r="M26" s="9">
+        <f>IF((L26*0.0075)&lt;30,-30,-(L26*0.0075))</f>
         <v>-30</v>
       </c>
-      <c r="N25" s="9">
-        <f>-(L25*0.0027)</f>
+      <c r="N26" s="9">
+        <f>-(L26*0.0027)</f>
         <v>-6.1560000000000006</v>
       </c>
-      <c r="O25" s="9">
-        <f t="shared" ref="O25:O26" si="5">SUM(L25:N25)</f>
+      <c r="O26" s="9">
+        <f t="shared" ref="O26:O27" si="4">SUM(L26:N26)</f>
         <v>2243.8440000000001</v>
       </c>
-      <c r="P25" s="9">
-        <f t="shared" ref="P25:P26" si="6">I25-M25</f>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26:P27" si="5">I26-M26</f>
         <v>60</v>
       </c>
-      <c r="Q25" s="9">
-        <f t="shared" ref="Q25:Q26" si="7">J25-N25</f>
+      <c r="Q26" s="9">
+        <f t="shared" ref="Q26:Q27" si="6">J26-N26</f>
         <v>11.549520000000001</v>
       </c>
-      <c r="R25" s="9">
-        <f t="shared" si="1"/>
+      <c r="R26" s="9">
+        <f t="shared" si="0"/>
         <v>210.85048000000006</v>
       </c>
-      <c r="S25" s="10">
-        <f t="shared" ref="S25" si="8">R25/K25</f>
+      <c r="S26" s="10">
+        <f t="shared" ref="S26" si="7">R26/K26</f>
         <v>0.10371429024525373</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T26" t="s">
         <v>111</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="str">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="str">
         <f>'Operacion 3'!B3</f>
         <v>ITX.MC</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <f>'Operacion 3'!B$2</f>
         <v>43154</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="14">
+      <c r="C27" s="8"/>
+      <c r="D27" s="14">
         <f>'Operacion 3'!B$5</f>
         <v>196</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <f>'Operacion 3'!B$4</f>
         <v>25.98</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>34.54</v>
-      </c>
-      <c r="G26" s="10">
+        <v>31.75</v>
+      </c>
+      <c r="G27" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.32948421862971511</v>
-      </c>
-      <c r="H26" s="9">
+        <v>0.22209391839876824</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>5092.08</v>
+      </c>
+      <c r="I27" s="9">
+        <f>IF((H27*(0.0075+0.0008))&lt;30,30,(H27*(0.0075+0.0008)))</f>
+        <v>42.264263999999997</v>
+      </c>
+      <c r="J27" s="9">
+        <f>H27*0.0027</f>
+        <v>13.748616</v>
+      </c>
+      <c r="K27" s="9">
         <f t="shared" si="2"/>
-        <v>5092.08</v>
-      </c>
-      <c r="I26" s="9">
-        <f>IF((H26*(0.0075+0.0008))&lt;30,30,(H26*(0.0075+0.0008)))</f>
-        <v>42.264263999999997</v>
-      </c>
-      <c r="J26" s="9">
-        <f>H26*0.0027</f>
-        <v>13.748616</v>
-      </c>
-      <c r="K26" s="9">
+        <v>5148.0928800000002</v>
+      </c>
+      <c r="L27" s="9">
         <f t="shared" si="3"/>
-        <v>5148.0928800000002</v>
-      </c>
-      <c r="L26" s="9">
+        <v>6223</v>
+      </c>
+      <c r="M27" s="9">
+        <f>IF((L27*(0.0075+0.0008))&lt;30,-30,-(L27*(0.0075+0.0008)))</f>
+        <v>-51.6509</v>
+      </c>
+      <c r="N27" s="9">
+        <f>-(L27*0.0027)</f>
+        <v>-16.802099999999999</v>
+      </c>
+      <c r="O27" s="9">
         <f t="shared" si="4"/>
-        <v>6769.84</v>
-      </c>
-      <c r="M26" s="9">
-        <f>IF((L26*(0.0075+0.0008))&lt;30,-30,-(L26*(0.0075+0.0008)))</f>
-        <v>-56.189672000000002</v>
-      </c>
-      <c r="N26" s="9">
-        <f>-(L26*0.0027)</f>
-        <v>-18.278568</v>
-      </c>
-      <c r="O26" s="9">
+        <v>6154.5470000000005</v>
+      </c>
+      <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>6695.37176</v>
-      </c>
-      <c r="P26" s="9">
+        <v>93.915164000000004</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="6"/>
-        <v>98.453935999999999</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="7"/>
-        <v>32.027183999999998</v>
-      </c>
-      <c r="R26" s="9">
-        <f>O26-K26</f>
-        <v>1547.2788799999998</v>
-      </c>
-      <c r="S26" s="10">
-        <f>R26/K26</f>
-        <v>0.30055380042016644</v>
-      </c>
-      <c r="T26" t="s">
+        <v>30.550716000000001</v>
+      </c>
+      <c r="R27" s="9">
+        <f>O27-K27</f>
+        <v>1006.4541200000003</v>
+      </c>
+      <c r="S27" s="10">
+        <f>R27/K27</f>
+        <v>0.19550038110423532</v>
+      </c>
+      <c r="T27" t="s">
         <v>58</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D28" s="48"/>
-      <c r="H28" s="48" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="48"/>
+      <c r="H29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48" t="s">
+      <c r="I29" s="48"/>
+      <c r="J29" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="R28" s="48"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F29" s="5"/>
-      <c r="G29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="R29" s="48"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T30" s="33"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="T31" t="s">
-        <v>70</v>
-      </c>
+      <c r="T31" s="33"/>
       <c r="U31">
         <v>24.75</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32">
-        <v>74.89</v>
-      </c>
-      <c r="F32">
-        <v>52</v>
-      </c>
-      <c r="G32" s="10">
-        <f>1-(F32/E32)</f>
-        <v>0.30564828415008682</v>
-      </c>
-      <c r="N32">
-        <v>6769.84</v>
-      </c>
-      <c r="O32">
-        <v>74.459999999999994</v>
-      </c>
-      <c r="P32" s="5">
-        <v>6695.38</v>
-      </c>
-      <c r="S32" s="10"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="R32" s="5"/>
       <c r="T32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U32">
         <v>34.54</v>
@@ -3258,33 +3269,30 @@
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33">
-        <v>182.08</v>
+        <v>74.89</v>
       </c>
       <c r="F33">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G33" s="10">
         <f>1-(F33/E33)</f>
-        <v>0.30799648506151145</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+        <v>0.30564828415008682</v>
+      </c>
+      <c r="N33">
+        <v>6769.84</v>
+      </c>
+      <c r="O33">
+        <v>74.459999999999994</v>
+      </c>
       <c r="P33" s="5">
-        <f>P32-K26</f>
-        <v>1547.28712</v>
-      </c>
-      <c r="R33" s="5"/>
+        <v>6695.38</v>
+      </c>
+      <c r="S33" s="10"/>
       <c r="T33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
@@ -3296,85 +3304,116 @@
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>93.54</v>
+        <v>182.08</v>
       </c>
       <c r="F34">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="G34" s="10">
         <f>1-(F34/E34)</f>
-        <v>0.30511011332050464</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+        <v>0.30799648506151145</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="P34" s="56">
-        <f>P33*0.1</f>
-        <v>154.728712</v>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5">
+        <f>P33-K27</f>
+        <v>1547.28712</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="T34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>110</v>
+      <c r="D35" t="s">
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>93.54</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G35" s="10">
         <f>1-(F35/E35)</f>
+        <v>0.30511011332050464</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="5"/>
+      <c r="P35" s="56">
+        <f>P34*0.1</f>
+        <v>154.728712</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36" s="10">
+        <f>1-(F36/E36)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P35" s="56">
-        <f>P33-P34</f>
+      <c r="P36" s="56">
+        <f>P34-P35</f>
         <v>1392.5584079999999</v>
       </c>
-      <c r="R35" s="43"/>
-    </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F36" s="5"/>
-      <c r="R36" s="9"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R37" s="45"/>
+      <c r="F37" s="5"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R38" s="50"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="5"/>
-    </row>
-    <row r="39" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F39" s="5"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="49"/>
+      <c r="R38" s="45"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="R39" s="50"/>
+      <c r="S39" s="48"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E40" s="5"/>
+    <row r="40" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
-      <c r="R40" s="45"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="5"/>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="R41" s="45"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R42" s="43"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R43" s="44"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="R44" s="57"/>
+      <c r="R44" s="44"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="R45" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3392,7 +3431,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,12 +3461,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>728.89+B11</f>
-        <v>5820.97</v>
+        <f>764.51+B11</f>
+        <v>5856.59</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.80667879716794832</v>
+        <v>0.80540707053065419</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3439,12 +3478,12 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1120</f>
-        <v>1120</v>
+        <f>1140</f>
+        <v>1140</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.15521128829526729</v>
+        <v>0.15677451561487926</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3460,7 +3499,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.8109914536784383E-2</v>
+        <v>3.7818413854466493E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3473,11 +3512,11 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7215.97</v>
+        <v>7271.59</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
@@ -3500,7 +3539,7 @@
       </c>
       <c r="B12" s="56">
         <f>B6-B11</f>
-        <v>2123.8900000000003</v>
+        <v>2179.5100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3513,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3778C8EA-E63A-40C1-A31F-DC8A2FFD0842}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC1605F0-F702-4430-B5BA-64346EA39DE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>BB-33</t>
   </si>
   <si>
-    <t>Hasta 1 Noviembre</t>
-  </si>
-  <si>
     <t>&lt;-- Beneficios</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>Dinero Bloqueado</t>
+  </si>
+  <si>
+    <t>Hasta 31 Diciembre</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2002,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>31.75</v>
+        <v>31.78</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.22209391839876824</v>
+        <v>0.22324865280985384</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:U21"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,10 +3052,10 @@
         <v>0.32770949929404947</v>
       </c>
       <c r="T25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -3133,10 +3133,10 @@
         <v>0.10371429024525373</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -3159,11 +3159,11 @@
       </c>
       <c r="F27" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>31.75</v>
+        <v>31.78</v>
       </c>
       <c r="G27" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.22209391839876824</v>
+        <v>0.22324865280985384</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="1"/>
@@ -3183,41 +3183,41 @@
       </c>
       <c r="L27" s="9">
         <f t="shared" si="3"/>
-        <v>6223</v>
+        <v>6228.88</v>
       </c>
       <c r="M27" s="9">
         <f>IF((L27*(0.0075+0.0008))&lt;30,-30,-(L27*(0.0075+0.0008)))</f>
-        <v>-51.6509</v>
+        <v>-51.699704000000004</v>
       </c>
       <c r="N27" s="9">
         <f>-(L27*0.0027)</f>
-        <v>-16.802099999999999</v>
+        <v>-16.817976000000002</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="4"/>
-        <v>6154.5470000000005</v>
+        <v>6160.3623200000002</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>93.915164000000004</v>
+        <v>93.963967999999994</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="6"/>
-        <v>30.550716000000001</v>
+        <v>30.566592</v>
       </c>
       <c r="R27" s="9">
         <f>O27-K27</f>
-        <v>1006.4541200000003</v>
+        <v>1012.26944</v>
       </c>
       <c r="S27" s="10">
         <f>R27/K27</f>
-        <v>0.19550038110423532</v>
+        <v>0.19662998776354634</v>
       </c>
       <c r="T27" t="s">
         <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -3241,9 +3241,11 @@
       <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T31" s="33"/>
+      <c r="T31" t="s">
+        <v>70</v>
+      </c>
       <c r="U31">
-        <v>24.75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3258,13 +3260,13 @@
       <c r="P32" s="5"/>
       <c r="R32" s="5"/>
       <c r="T32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U32">
-        <v>34.54</v>
+        <v>31.78</v>
       </c>
       <c r="V32" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
@@ -3292,11 +3294,11 @@
       </c>
       <c r="S33" s="10"/>
       <c r="T33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.39555555555555544</v>
+        <v>0.22230769230769232</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>
@@ -3329,9 +3331,6 @@
         <v>1547.28712</v>
       </c>
       <c r="R34" s="5"/>
-      <c r="T34" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -3358,7 +3357,7 @@
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -3522,12 +3521,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="56">
         <v>5092.08</v>
@@ -3535,7 +3534,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="56">
         <f>B6-B11</f>
@@ -3570,144 +3569,144 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
         <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,13 +3714,13 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC1605F0-F702-4430-B5BA-64346EA39DE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E773A503-244B-4EDE-9815-4D98B5EE4DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,7 +2002,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5">
-        <v>31.78</v>
+        <v>31.82</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>34</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B7" s="3">
         <f>(B6/B4)-1</f>
-        <v>0.22324865280985384</v>
+        <v>0.22478829869130101</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>37</v>
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,35 +2924,35 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H23" s="15">
-        <f>SUM(H3:H22)</f>
+        <f t="shared" ref="H23:O23" si="0">SUM(H3:H22)</f>
         <v>17571.839999999997</v>
       </c>
       <c r="I23" s="15">
-        <f>SUM(I3:I22)</f>
+        <f t="shared" si="0"/>
         <v>42.26</v>
       </c>
       <c r="J23" s="15">
-        <f>SUM(J3:J22)</f>
+        <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
       <c r="K23" s="15">
-        <f>SUM(K3:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f>SUM(L3:L22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="15">
-        <f>SUM(M3:M22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="15">
-        <f>SUM(N3:N22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O23" s="15">
-        <f>SUM(O3:O22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="15">
@@ -3044,7 +3044,7 @@
         <v>34.960653000000001</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" ref="R25:R26" si="0">O25-K25</f>
+        <f t="shared" ref="R25:R26" si="1">O25-K25</f>
         <v>1822.2493470000009</v>
       </c>
       <c r="S25" s="10">
@@ -3085,7 +3085,7 @@
         <v>0.14136964357228687</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26:H27" si="1">E26*D26</f>
+        <f t="shared" ref="H26:H27" si="2">E26*D26</f>
         <v>1997.6</v>
       </c>
       <c r="I26" s="9">
@@ -3097,11 +3097,11 @@
         <v>5.3935199999999996</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" ref="K26:K27" si="2">SUM(H26:J26)</f>
+        <f t="shared" ref="K26:K27" si="3">SUM(H26:J26)</f>
         <v>2032.99352</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" ref="L26:L27" si="3">D26*F26</f>
+        <f t="shared" ref="L26:L27" si="4">D26*F26</f>
         <v>2280</v>
       </c>
       <c r="M26" s="9">
@@ -3113,23 +3113,23 @@
         <v>-6.1560000000000006</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ref="O26:O27" si="4">SUM(L26:N26)</f>
+        <f t="shared" ref="O26:O27" si="5">SUM(L26:N26)</f>
         <v>2243.8440000000001</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" ref="P26:P27" si="5">I26-M26</f>
+        <f t="shared" ref="P26:P27" si="6">I26-M26</f>
         <v>60</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" ref="Q26:Q27" si="6">J26-N26</f>
+        <f t="shared" ref="Q26:Q27" si="7">J26-N26</f>
         <v>11.549520000000001</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.85048000000006</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" ref="S26" si="7">R26/K26</f>
+        <f t="shared" ref="S26" si="8">R26/K26</f>
         <v>0.10371429024525373</v>
       </c>
       <c r="T26" t="s">
@@ -3159,14 +3159,14 @@
       </c>
       <c r="F27" s="9">
         <f>'Operacion 3'!B$6</f>
-        <v>31.78</v>
+        <v>31.82</v>
       </c>
       <c r="G27" s="10">
         <f>'Operacion 3'!B$7</f>
-        <v>0.22324865280985384</v>
+        <v>0.22478829869130101</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5092.08</v>
       </c>
       <c r="I27" s="9">
@@ -3178,40 +3178,40 @@
         <v>13.748616</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5148.0928800000002</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="3"/>
-        <v>6228.88</v>
+        <f t="shared" si="4"/>
+        <v>6236.72</v>
       </c>
       <c r="M27" s="9">
         <f>IF((L27*(0.0075+0.0008))&lt;30,-30,-(L27*(0.0075+0.0008)))</f>
-        <v>-51.699704000000004</v>
+        <v>-51.764776000000005</v>
       </c>
       <c r="N27" s="9">
         <f>-(L27*0.0027)</f>
-        <v>-16.817976000000002</v>
+        <v>-16.839144000000001</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="4"/>
-        <v>6160.3623200000002</v>
+        <f t="shared" si="5"/>
+        <v>6168.1160800000007</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="5"/>
-        <v>93.963967999999994</v>
+        <f t="shared" si="6"/>
+        <v>94.029040000000009</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="6"/>
-        <v>30.566592</v>
+        <f t="shared" si="7"/>
+        <v>30.587760000000003</v>
       </c>
       <c r="R27" s="9">
         <f>O27-K27</f>
-        <v>1012.26944</v>
+        <v>1020.0232000000005</v>
       </c>
       <c r="S27" s="10">
         <f>R27/K27</f>
-        <v>0.19662998776354634</v>
+        <v>0.19813612997596122</v>
       </c>
       <c r="T27" t="s">
         <v>58</v>
@@ -3263,7 +3263,7 @@
         <v>68</v>
       </c>
       <c r="U32">
-        <v>31.78</v>
+        <v>31.82</v>
       </c>
       <c r="V32" t="s">
         <v>116</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.22230769230769232</v>
+        <v>0.22384615384615381</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>
@@ -3430,7 +3430,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E773A503-244B-4EDE-9815-4D98B5EE4DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C4DC819-97DC-47D8-9D3A-70522ABEB6A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1882,7 +1882,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C4DC819-97DC-47D8-9D3A-70522ABEB6A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDDE63EB-D105-4971-ABE1-E22BC4319935}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2018/Inversiones.xlsx
+++ b/2018/Inversiones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDDE63EB-D105-4971-ABE1-E22BC4319935}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76CA74C6-FDB7-440D-ACC2-AC8D4B13DEC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operacion 1" sheetId="1" r:id="rId1"/>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="U31">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="U33" s="3">
         <f>(U32/U31)-1</f>
-        <v>0.22384615384615381</v>
+        <v>0.17851851851851852</v>
       </c>
       <c r="V33" t="s">
         <v>83</v>
@@ -3427,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,12 +3460,12 @@
         <v>75</v>
       </c>
       <c r="B3" s="56">
-        <f>764.51+B11</f>
-        <v>5856.59</v>
+        <f>784.51+B11</f>
+        <v>5876.59</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B$6</f>
-        <v>0.80540707053065419</v>
+        <v>0.80373625982857355</v>
       </c>
       <c r="D3" s="56">
         <f>D$6*C3</f>
@@ -3477,12 +3477,12 @@
         <v>79</v>
       </c>
       <c r="B4" s="56">
-        <f>1140</f>
-        <v>1140</v>
+        <f>1160</f>
+        <v>1160</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C5" si="0">B4/B$6</f>
-        <v>0.15677451561487926</v>
+        <v>0.15865222202010779</v>
       </c>
       <c r="D4" s="56">
         <f t="shared" ref="D4:D5" si="1">D$6*C4</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.7818413854466493E-2</v>
+        <v>3.7611518151318662E-2</v>
       </c>
       <c r="D5" s="56">
         <f t="shared" si="1"/>
@@ -3511,11 +3511,11 @@
       </c>
       <c r="B6" s="56">
         <f>SUM(B3:B5)</f>
-        <v>7271.59</v>
+        <v>7311.59</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
@@ -3538,8 +3538,14 @@
       </c>
       <c r="B12" s="56">
         <f>B6-B11</f>
-        <v>2179.5100000000002</v>
-      </c>
+        <v>2219.5100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
